--- a/data/raw/список_сказок.xlsx
+++ b/data/raw/список_сказок.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\folk_art\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\folk_art\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC02B932-D4E8-40D0-8B26-3F06FD6A2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F59AA9-05FF-4833-BD29-73FC97E94EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="0" windowWidth="10155" windowHeight="11460" xr2:uid="{32319B73-5396-4F80-A1E8-48F64898489E}"/>
+    <workbookView xWindow="0" yWindow="68" windowWidth="10155" windowHeight="11459" xr2:uid="{32319B73-5396-4F80-A1E8-48F64898489E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="319">
   <si>
     <t>Номер</t>
   </si>
@@ -616,6 +616,381 @@
   </si>
   <si>
     <t>Емеля-дурак</t>
+  </si>
+  <si>
+    <t>Сивко-бурко</t>
+  </si>
+  <si>
+    <t>Свинка золотая щетинка</t>
+  </si>
+  <si>
+    <t>Волшебный конь</t>
+  </si>
+  <si>
+    <t>Конь, скатерть и рожок</t>
+  </si>
+  <si>
+    <t>Двое из сумы</t>
+  </si>
+  <si>
+    <t>Петух и жерновки</t>
+  </si>
+  <si>
+    <t>Чудесный ящик</t>
+  </si>
+  <si>
+    <t>Рога</t>
+  </si>
+  <si>
+    <t>Сказка про утку с золотыми яйцами</t>
+  </si>
+  <si>
+    <t>Чудесная курица</t>
+  </si>
+  <si>
+    <t>Безногий и слепой богатыри</t>
+  </si>
+  <si>
+    <t>Царь-медведь</t>
+  </si>
+  <si>
+    <t>Звериное молоко</t>
+  </si>
+  <si>
+    <t>Притворная болезнь</t>
+  </si>
+  <si>
+    <t>Волшебное зеркальце</t>
+  </si>
+  <si>
+    <t>Пойди туда - не знаю куда, принеси то - не знаю что</t>
+  </si>
+  <si>
+    <t>Мудрая жена</t>
+  </si>
+  <si>
+    <t>Три копеечки</t>
+  </si>
+  <si>
+    <t>Неосторожное слово</t>
+  </si>
+  <si>
+    <t>Купленная жена</t>
+  </si>
+  <si>
+    <t>Царь-девица</t>
+  </si>
+  <si>
+    <t>Перышко Финиста ясна сокола</t>
+  </si>
+  <si>
+    <t>Гусли-сумогуды</t>
+  </si>
+  <si>
+    <t>Царевна, разрешающая загадки</t>
+  </si>
+  <si>
+    <t>Соль</t>
+  </si>
+  <si>
+    <t>Золотая гора</t>
+  </si>
+  <si>
+    <t>Чудесная дудка</t>
+  </si>
+  <si>
+    <t>Птичий язык</t>
+  </si>
+  <si>
+    <t>Охотник и его жена</t>
+  </si>
+  <si>
+    <t>Диво</t>
+  </si>
+  <si>
+    <t>Счастливое дитя</t>
+  </si>
+  <si>
+    <t>Клад</t>
+  </si>
+  <si>
+    <t>Сестрица Алёнушка, братец Иванушка</t>
+  </si>
+  <si>
+    <t>Царевна - серая утица</t>
+  </si>
+  <si>
+    <t>Арысь-поле</t>
+  </si>
+  <si>
+    <t>Царевна-змея</t>
+  </si>
+  <si>
+    <t>Заклятый царевич</t>
+  </si>
+  <si>
+    <t>Сопливый козел</t>
+  </si>
+  <si>
+    <t>Неумойка</t>
+  </si>
+  <si>
+    <t>Косоручка</t>
+  </si>
+  <si>
+    <t>Поющее дерево и птица-говорунья</t>
+  </si>
+  <si>
+    <t>Свиной чехол</t>
+  </si>
+  <si>
+    <t>Золотой башмачок</t>
+  </si>
+  <si>
+    <t>Чернушка</t>
+  </si>
+  <si>
+    <t>Царевна в подземном царстве</t>
+  </si>
+  <si>
+    <t>Незнайко</t>
+  </si>
+  <si>
+    <t>Несмеяна-царевна</t>
+  </si>
+  <si>
+    <t>Ночные пляски</t>
+  </si>
+  <si>
+    <t>Мальчик с пальчик</t>
+  </si>
+  <si>
+    <t>Верлиока</t>
+  </si>
+  <si>
+    <t>Лихо одноглазое</t>
+  </si>
+  <si>
+    <t>Горе</t>
+  </si>
+  <si>
+    <t>Две доли</t>
+  </si>
+  <si>
+    <t>Марко Богатый и Василий Бессчастный</t>
+  </si>
+  <si>
+    <t>История о славном и храбром богатыре Илье Муромце и Соловье-разбойнике</t>
+  </si>
+  <si>
+    <t>Илья Муромец и змей</t>
+  </si>
+  <si>
+    <t>Василий Буславич</t>
+  </si>
+  <si>
+    <t>Алеша Попович</t>
+  </si>
+  <si>
+    <t>Данило Бессчастный</t>
+  </si>
+  <si>
+    <t>Василий-царевич и Елена Прекрасная</t>
+  </si>
+  <si>
+    <t>Балдак Борисьевич</t>
+  </si>
+  <si>
+    <t>Василиса Поповна</t>
+  </si>
+  <si>
+    <t>Про Мамая безбожного</t>
+  </si>
+  <si>
+    <t>Сказание об Александре Македонском</t>
+  </si>
+  <si>
+    <t>Шемякин суд</t>
+  </si>
+  <si>
+    <t>Загадки</t>
+  </si>
+  <si>
+    <t>Мудрые ответы</t>
+  </si>
+  <si>
+    <t>Мудрая дева</t>
+  </si>
+  <si>
+    <t>Попов работник</t>
+  </si>
+  <si>
+    <t>Царевич-найденыш</t>
+  </si>
+  <si>
+    <t>Сосватанные дети</t>
+  </si>
+  <si>
+    <t>Доброе слово</t>
+  </si>
+  <si>
+    <t>Дочь пастуха</t>
+  </si>
+  <si>
+    <t>Оклеветанная купеческая дочь</t>
+  </si>
+  <si>
+    <t>Царица-гусляр</t>
+  </si>
+  <si>
+    <t>Отец и дочь</t>
+  </si>
+  <si>
+    <t>Солдат и царь в лесу</t>
+  </si>
+  <si>
+    <t>Солдат и разбойник</t>
+  </si>
+  <si>
+    <t>Разбойники</t>
+  </si>
+  <si>
+    <t>Королевна и разбойники</t>
+  </si>
+  <si>
+    <t>Мудрая девица и семь разбойников</t>
+  </si>
+  <si>
+    <t>Счастье и несчастье</t>
+  </si>
+  <si>
+    <t>Убогий</t>
+  </si>
+  <si>
+    <t>Бесстрашный</t>
+  </si>
+  <si>
+    <t>Рассказы о мертвецах</t>
+  </si>
+  <si>
+    <t>Упырь</t>
+  </si>
+  <si>
+    <t>Иван купеческий сын отчитывает царевну</t>
+  </si>
+  <si>
+    <t>Рассказы о ведьмах</t>
+  </si>
+  <si>
+    <t>Смерть скупого</t>
+  </si>
+  <si>
+    <t>Скрипач в аду</t>
+  </si>
+  <si>
+    <t>Горшечник</t>
+  </si>
+  <si>
+    <t>Вдова и бес</t>
+  </si>
+  <si>
+    <t>Леший</t>
+  </si>
+  <si>
+    <t>Морока</t>
+  </si>
+  <si>
+    <t>Дока на доку</t>
+  </si>
+  <si>
+    <t>Ворожея</t>
+  </si>
+  <si>
+    <t>Знахарь</t>
+  </si>
+  <si>
+    <t>Слепцы</t>
+  </si>
+  <si>
+    <t>Вор</t>
+  </si>
+  <si>
+    <t>Вороватый мужик</t>
+  </si>
+  <si>
+    <t>Солдатская загадка</t>
+  </si>
+  <si>
+    <t>Мертвое тело</t>
+  </si>
+  <si>
+    <t>Шут</t>
+  </si>
+  <si>
+    <t>Дурак и береза</t>
+  </si>
+  <si>
+    <t>Набитый дурак</t>
+  </si>
+  <si>
+    <t>Лутонюшка</t>
+  </si>
+  <si>
+    <t>Сказка про братьев Фому и Ерему</t>
+  </si>
+  <si>
+    <t>Хорошо, да худо</t>
+  </si>
+  <si>
+    <t>Не любо - не слушай</t>
+  </si>
+  <si>
+    <t>Байка про старину стародавнюю</t>
+  </si>
+  <si>
+    <t>Удалой батрак</t>
+  </si>
+  <si>
+    <t>Иван-дурак</t>
+  </si>
+  <si>
+    <t>Фома Беренников</t>
+  </si>
+  <si>
+    <t>Сказка о злой жене</t>
+  </si>
+  <si>
+    <t>Жена-спорщица</t>
+  </si>
+  <si>
+    <t>Жена-доказчица</t>
+  </si>
+  <si>
+    <t>Головиха</t>
+  </si>
+  <si>
+    <t>Муж да жена</t>
+  </si>
+  <si>
+    <t>Вещий дуб</t>
+  </si>
+  <si>
+    <t>Дорогая кожа</t>
+  </si>
+  <si>
+    <t>Как муж отучил жену от сказок</t>
+  </si>
+  <si>
+    <t>Лубок</t>
+  </si>
+  <si>
+    <t>Крест-порука</t>
+  </si>
+  <si>
+    <t>Об отце Николае</t>
+  </si>
+  <si>
+    <t>Скряга</t>
   </si>
 </sst>
 </file>
@@ -981,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE065C-7F43-4346-A617-098E22C2BBF6}">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4136,7 +4511,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
-        <f t="shared" ref="A262:A282" si="5">A261+1</f>
+        <f t="shared" ref="A262:A325" si="5">A261+1</f>
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -4384,6 +4759,2317 @@
       </c>
       <c r="C282">
         <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>194</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <f t="shared" si="5"/>
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>194</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <f t="shared" si="5"/>
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>195</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>195</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>195</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>196</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>197</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <f t="shared" si="5"/>
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>198</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>199</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>200</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <f t="shared" si="5"/>
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <f t="shared" si="5"/>
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>201</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>201</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>201</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>202</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>202</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>203</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>204</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>204</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <f t="shared" si="5"/>
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>204</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>205</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <f t="shared" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>206</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>206</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>206</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>206</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>207</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>207</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>86</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <f t="shared" si="5"/>
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>86</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>208</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <f t="shared" si="5"/>
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>209</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <f t="shared" si="5"/>
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>209</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>209</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>209</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <f t="shared" si="5"/>
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>210</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>211</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <f t="shared" si="5"/>
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>211</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>53</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>53</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <f t="shared" si="5"/>
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>53</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>53</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <f t="shared" ref="A326:A389" si="6">A325+1</f>
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>53</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <f t="shared" si="6"/>
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <f t="shared" si="6"/>
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>53</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <f t="shared" si="6"/>
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>212</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <f t="shared" si="6"/>
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>212</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>212</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <f t="shared" si="6"/>
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>213</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <f t="shared" si="6"/>
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>213</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <f t="shared" si="6"/>
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>214</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <f t="shared" si="6"/>
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>214</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <f t="shared" si="6"/>
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>215</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>215</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <f t="shared" si="6"/>
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>72</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <f t="shared" si="6"/>
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>72</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <f t="shared" si="6"/>
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>216</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <f t="shared" si="6"/>
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>217</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <f t="shared" si="6"/>
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>78</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>78</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <f t="shared" si="6"/>
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>218</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <f t="shared" si="6"/>
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>219</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>220</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <f t="shared" si="6"/>
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>220</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <f t="shared" si="6"/>
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>220</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>221</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <f t="shared" si="6"/>
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>222</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>110</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>110</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <f t="shared" si="6"/>
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>110</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <f t="shared" si="6"/>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>110</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <f t="shared" si="6"/>
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>110</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <f t="shared" si="6"/>
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>223</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <f t="shared" si="6"/>
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>223</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <f t="shared" si="6"/>
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>69</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <f t="shared" si="6"/>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>224</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <f t="shared" si="6"/>
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>225</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>108</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>226</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>226</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>226</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>226</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>227</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>87</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>228</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <f t="shared" si="6"/>
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <f t="shared" si="6"/>
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>229</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>82</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <f t="shared" si="6"/>
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>82</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <f t="shared" si="6"/>
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>106</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>106</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <f t="shared" si="6"/>
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>94</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <f t="shared" si="6"/>
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>230</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>231</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>232</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>233</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <f t="shared" si="6"/>
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>233</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <f t="shared" si="6"/>
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>233</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>233</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>103</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>103</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <f t="shared" si="6"/>
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>103</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>103</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <f t="shared" si="6"/>
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>103</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <f t="shared" ref="A390:A420" si="7">A389+1</f>
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>234</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>234</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <f t="shared" si="7"/>
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>235</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <f t="shared" si="7"/>
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>235</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <f t="shared" si="7"/>
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>236</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <f t="shared" si="7"/>
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>237</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <f t="shared" si="7"/>
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>238</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>239</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <f t="shared" si="7"/>
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>239</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>240</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>241</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>241</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <f t="shared" si="7"/>
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>242</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <f t="shared" si="7"/>
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>243</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <f t="shared" si="7"/>
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>244</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <f t="shared" si="7"/>
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>245</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>246</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <f t="shared" si="7"/>
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>247</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <f t="shared" si="7"/>
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>247</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>247</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>248</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>248</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <f t="shared" si="7"/>
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>249</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <f t="shared" si="7"/>
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>250</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <f t="shared" si="7"/>
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>251</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <f t="shared" si="7"/>
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>252</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <f t="shared" si="7"/>
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>253</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <f t="shared" si="7"/>
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>254</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <f t="shared" si="7"/>
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>255</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <f t="shared" si="7"/>
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>256</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <f t="shared" si="7"/>
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>257</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B421" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B422" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B423" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B424" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B425" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B426" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B427" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B428" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B429" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B430" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B431" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B432" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B433" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B434" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B435" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B436" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B437" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B438" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B439" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B440" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B441" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B442" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B443" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B444" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B445" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B446" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B447" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B448" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B449" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B450" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B451" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B452" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B453" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B454" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B455" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B456" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B457" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B458" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B459" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B460" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B461" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B462" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B463" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B464" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B465" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B466" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B467" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B468" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B469" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B470" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B471" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B472" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B473" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B474" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B475" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B476" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B477" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B478" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B479" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B480" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B481" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B482" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B483" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B484" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B485" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B486" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B487" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B488" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B489" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B490" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B491" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B492" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B493" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B494" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B495" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B496" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B497" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B498" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B499" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B500" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B501" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B502" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B503" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B504" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B505" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B506" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B507" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B508" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B509" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B510" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B511" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B512" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B513" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B514" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B515" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B516" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B517" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B518" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B519" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B520" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B521" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B522" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B523" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B524" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B525" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B526" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B527" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B528" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B529" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B530" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B531" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B532" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B533" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B534" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B535" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B536" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B537" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B538" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B539" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B540" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B541" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B542" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B543" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B544" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B545" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B546" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B547" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B548" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B549" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B550" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B551" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/список_сказок.xlsx
+++ b/data/raw/список_сказок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\folk_art\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F59AA9-05FF-4833-BD29-73FC97E94EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236C302-E6A5-4CA1-8708-8791FECF7997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="68" windowWidth="10155" windowHeight="11459" xr2:uid="{32319B73-5396-4F80-A1E8-48F64898489E}"/>
   </bookViews>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE065C-7F43-4346-A617-098E22C2BBF6}">
   <dimension ref="A1:E551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B557" sqref="B557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390">
-        <f t="shared" ref="A390:A420" si="7">A389+1</f>
+        <f t="shared" ref="A390:A453" si="7">A389+1</f>
         <v>389</v>
       </c>
       <c r="B390" t="s">
@@ -6418,658 +6418,1575 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
       <c r="B421" t="s">
         <v>258</v>
       </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <f t="shared" si="7"/>
+        <v>421</v>
+      </c>
       <c r="B422" t="s">
         <v>258</v>
       </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <f t="shared" si="7"/>
+        <v>422</v>
+      </c>
       <c r="B423" t="s">
         <v>259</v>
       </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <f t="shared" si="7"/>
+        <v>423</v>
+      </c>
       <c r="B424" t="s">
         <v>259</v>
       </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <f t="shared" si="7"/>
+        <v>424</v>
+      </c>
       <c r="B425" t="s">
         <v>259</v>
       </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
       <c r="B426" t="s">
         <v>120</v>
       </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <f t="shared" si="7"/>
+        <v>426</v>
+      </c>
       <c r="B427" t="s">
         <v>120</v>
       </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <f t="shared" si="7"/>
+        <v>427</v>
+      </c>
       <c r="B428" t="s">
         <v>260</v>
       </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <f t="shared" si="7"/>
+        <v>428</v>
+      </c>
       <c r="B429" t="s">
         <v>261</v>
       </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <f t="shared" si="7"/>
+        <v>429</v>
+      </c>
       <c r="B430" t="s">
         <v>261</v>
       </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <f t="shared" si="7"/>
+        <v>430</v>
+      </c>
       <c r="B431" t="s">
         <v>262</v>
       </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <f t="shared" si="7"/>
+        <v>431</v>
+      </c>
       <c r="B432" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <f t="shared" si="7"/>
+        <v>432</v>
+      </c>
       <c r="B433" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <f t="shared" si="7"/>
+        <v>433</v>
+      </c>
       <c r="B434" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <f t="shared" si="7"/>
+        <v>434</v>
+      </c>
       <c r="B435" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <f t="shared" si="7"/>
+        <v>435</v>
+      </c>
       <c r="B436" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <f t="shared" si="7"/>
+        <v>436</v>
+      </c>
       <c r="B437" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <f t="shared" si="7"/>
+        <v>437</v>
+      </c>
       <c r="B438" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <f t="shared" si="7"/>
+        <v>438</v>
+      </c>
       <c r="B439" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <f t="shared" si="7"/>
+        <v>439</v>
+      </c>
       <c r="B440" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
       <c r="B441" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <f t="shared" si="7"/>
+        <v>441</v>
+      </c>
       <c r="B442" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <f t="shared" si="7"/>
+        <v>442</v>
+      </c>
       <c r="B443" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <f t="shared" si="7"/>
+        <v>443</v>
+      </c>
       <c r="B444" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <f t="shared" si="7"/>
+        <v>444</v>
+      </c>
       <c r="B445" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <f t="shared" si="7"/>
+        <v>445</v>
+      </c>
       <c r="B446" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <f t="shared" si="7"/>
+        <v>446</v>
+      </c>
       <c r="B447" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <f t="shared" si="7"/>
+        <v>447</v>
+      </c>
       <c r="B448" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <f t="shared" si="7"/>
+        <v>448</v>
+      </c>
       <c r="B449" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <f t="shared" si="7"/>
+        <v>449</v>
+      </c>
       <c r="B450" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
       <c r="B451" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <f t="shared" si="7"/>
+        <v>451</v>
+      </c>
       <c r="B452" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <f t="shared" si="7"/>
+        <v>452</v>
+      </c>
       <c r="B453" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <f t="shared" ref="A454:A517" si="8">A453+1</f>
+        <v>453</v>
+      </c>
       <c r="B454" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
       <c r="B455" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
       <c r="B456" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <f t="shared" si="8"/>
+        <v>456</v>
+      </c>
       <c r="B457" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <f t="shared" si="8"/>
+        <v>457</v>
+      </c>
       <c r="B458" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <f t="shared" si="8"/>
+        <v>458</v>
+      </c>
       <c r="B459" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <f t="shared" si="8"/>
+        <v>459</v>
+      </c>
       <c r="B460" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
       <c r="B461" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
       <c r="B462" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A463">
+        <f t="shared" si="8"/>
+        <v>462</v>
+      </c>
       <c r="B463" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A464">
+        <f t="shared" si="8"/>
+        <v>463</v>
+      </c>
       <c r="B464" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A465">
+        <f t="shared" si="8"/>
+        <v>464</v>
+      </c>
       <c r="B465" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A466">
+        <f t="shared" si="8"/>
+        <v>465</v>
+      </c>
       <c r="B466" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A467">
+        <f t="shared" si="8"/>
+        <v>466</v>
+      </c>
       <c r="B467" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A468">
+        <f t="shared" si="8"/>
+        <v>467</v>
+      </c>
       <c r="B468" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A469">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
       <c r="B469" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A470">
+        <f t="shared" si="8"/>
+        <v>469</v>
+      </c>
       <c r="B470" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A471">
+        <f t="shared" si="8"/>
+        <v>470</v>
+      </c>
       <c r="B471" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A472">
+        <f t="shared" si="8"/>
+        <v>471</v>
+      </c>
       <c r="B472" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A473">
+        <f t="shared" si="8"/>
+        <v>472</v>
+      </c>
       <c r="B473" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A474">
+        <f t="shared" si="8"/>
+        <v>473</v>
+      </c>
       <c r="B474" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A475">
+        <f t="shared" si="8"/>
+        <v>474</v>
+      </c>
       <c r="B475" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A476">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
       <c r="B476" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A477">
+        <f t="shared" si="8"/>
+        <v>476</v>
+      </c>
       <c r="B477" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A478">
+        <f t="shared" si="8"/>
+        <v>477</v>
+      </c>
       <c r="B478" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A479">
+        <f t="shared" si="8"/>
+        <v>478</v>
+      </c>
       <c r="B479" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A480">
+        <f t="shared" si="8"/>
+        <v>479</v>
+      </c>
       <c r="B480" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A481">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
       <c r="B481" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A482">
+        <f t="shared" si="8"/>
+        <v>481</v>
+      </c>
       <c r="B482" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A483">
+        <f t="shared" si="8"/>
+        <v>482</v>
+      </c>
       <c r="B483" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A484">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
       <c r="B484" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A485">
+        <f t="shared" si="8"/>
+        <v>484</v>
+      </c>
       <c r="B485" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A486">
+        <f t="shared" si="8"/>
+        <v>485</v>
+      </c>
       <c r="B486" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A487">
+        <f t="shared" si="8"/>
+        <v>486</v>
+      </c>
       <c r="B487" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A488">
+        <f t="shared" si="8"/>
+        <v>487</v>
+      </c>
       <c r="B488" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A489">
+        <f t="shared" si="8"/>
+        <v>488</v>
+      </c>
       <c r="B489" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A490">
+        <f t="shared" si="8"/>
+        <v>489</v>
+      </c>
       <c r="B490" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A491">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
       <c r="B491" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A492">
+        <f t="shared" si="8"/>
+        <v>491</v>
+      </c>
       <c r="B492" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A493">
+        <f t="shared" si="8"/>
+        <v>492</v>
+      </c>
       <c r="B493" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A494">
+        <f t="shared" si="8"/>
+        <v>493</v>
+      </c>
       <c r="B494" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A495">
+        <f t="shared" si="8"/>
+        <v>494</v>
+      </c>
       <c r="B495" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A496">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
       <c r="B496" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A497">
+        <f t="shared" si="8"/>
+        <v>496</v>
+      </c>
       <c r="B497" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A498">
+        <f t="shared" si="8"/>
+        <v>497</v>
+      </c>
       <c r="B498" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A499">
+        <f t="shared" si="8"/>
+        <v>498</v>
+      </c>
       <c r="B499" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A500">
+        <f t="shared" si="8"/>
+        <v>499</v>
+      </c>
       <c r="B500" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A501">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
       <c r="B501" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A502">
+        <f t="shared" si="8"/>
+        <v>501</v>
+      </c>
       <c r="B502" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A503">
+        <f t="shared" si="8"/>
+        <v>502</v>
+      </c>
       <c r="B503" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A504">
+        <f t="shared" si="8"/>
+        <v>503</v>
+      </c>
       <c r="B504" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A505">
+        <f t="shared" si="8"/>
+        <v>504</v>
+      </c>
       <c r="B505" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A506">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
       <c r="B506" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A507">
+        <f t="shared" si="8"/>
+        <v>506</v>
+      </c>
       <c r="B507" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A508">
+        <f t="shared" si="8"/>
+        <v>507</v>
+      </c>
       <c r="B508" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A509">
+        <f t="shared" si="8"/>
+        <v>508</v>
+      </c>
       <c r="B509" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A510">
+        <f t="shared" si="8"/>
+        <v>509</v>
+      </c>
       <c r="B510" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A511">
+        <f t="shared" si="8"/>
+        <v>510</v>
+      </c>
       <c r="B511" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A512">
+        <f t="shared" si="8"/>
+        <v>511</v>
+      </c>
       <c r="B512" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A513">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
       <c r="B513" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A514">
+        <f t="shared" si="8"/>
+        <v>513</v>
+      </c>
       <c r="B514" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A515">
+        <f t="shared" si="8"/>
+        <v>514</v>
+      </c>
       <c r="B515" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A516">
+        <f t="shared" si="8"/>
+        <v>515</v>
+      </c>
       <c r="B516" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A517">
+        <f t="shared" si="8"/>
+        <v>516</v>
+      </c>
       <c r="B517" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A518">
+        <f t="shared" ref="A518:A551" si="9">A517+1</f>
+        <v>517</v>
+      </c>
       <c r="B518" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A519">
+        <f t="shared" si="9"/>
+        <v>518</v>
+      </c>
       <c r="B519" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A520">
+        <f t="shared" si="9"/>
+        <v>519</v>
+      </c>
       <c r="B520" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A521">
+        <f t="shared" si="9"/>
+        <v>520</v>
+      </c>
       <c r="B521" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A522">
+        <f t="shared" si="9"/>
+        <v>521</v>
+      </c>
       <c r="B522" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A523">
+        <f t="shared" si="9"/>
+        <v>522</v>
+      </c>
       <c r="B523" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A524">
+        <f t="shared" si="9"/>
+        <v>523</v>
+      </c>
       <c r="B524" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A525">
+        <f t="shared" si="9"/>
+        <v>524</v>
+      </c>
       <c r="B525" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A526">
+        <f t="shared" si="9"/>
+        <v>525</v>
+      </c>
       <c r="B526" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A527">
+        <f t="shared" si="9"/>
+        <v>526</v>
+      </c>
       <c r="B527" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A528">
+        <f t="shared" si="9"/>
+        <v>527</v>
+      </c>
       <c r="B528" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A529">
+        <f t="shared" si="9"/>
+        <v>528</v>
+      </c>
       <c r="B529" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A530">
+        <f t="shared" si="9"/>
+        <v>529</v>
+      </c>
       <c r="B530" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A531">
+        <f t="shared" si="9"/>
+        <v>530</v>
+      </c>
       <c r="B531" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A532">
+        <f t="shared" si="9"/>
+        <v>531</v>
+      </c>
       <c r="B532" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A533">
+        <f t="shared" si="9"/>
+        <v>532</v>
+      </c>
       <c r="B533" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A534">
+        <f t="shared" si="9"/>
+        <v>533</v>
+      </c>
       <c r="B534" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A535">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
       <c r="B535" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A536">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
       <c r="B536" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A537">
+        <f t="shared" si="9"/>
+        <v>536</v>
+      </c>
       <c r="B537" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A538">
+        <f t="shared" si="9"/>
+        <v>537</v>
+      </c>
       <c r="B538" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A539">
+        <f t="shared" si="9"/>
+        <v>538</v>
+      </c>
       <c r="B539" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A540">
+        <f t="shared" si="9"/>
+        <v>539</v>
+      </c>
       <c r="B540" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A541">
+        <f t="shared" si="9"/>
+        <v>540</v>
+      </c>
       <c r="B541" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A542">
+        <f t="shared" si="9"/>
+        <v>541</v>
+      </c>
       <c r="B542" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A543">
+        <f t="shared" si="9"/>
+        <v>542</v>
+      </c>
       <c r="B543" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A544">
+        <f t="shared" si="9"/>
+        <v>543</v>
+      </c>
       <c r="B544" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A545">
+        <f t="shared" si="9"/>
+        <v>544</v>
+      </c>
       <c r="B545" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A546">
+        <f t="shared" si="9"/>
+        <v>545</v>
+      </c>
       <c r="B546" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A547">
+        <f t="shared" si="9"/>
+        <v>546</v>
+      </c>
       <c r="B547" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A548">
+        <f t="shared" si="9"/>
+        <v>547</v>
+      </c>
       <c r="B548" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A549">
+        <f t="shared" si="9"/>
+        <v>548</v>
+      </c>
       <c r="B549" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A550">
+        <f t="shared" si="9"/>
+        <v>549</v>
+      </c>
       <c r="B550" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A551">
+        <f t="shared" si="9"/>
+        <v>550</v>
+      </c>
       <c r="B551" t="s">
         <v>318</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
